--- a/public/excel/viewpal_mysql.xlsx
+++ b/public/excel/viewpal_mysql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>CREATE TABLE user(
-Id INT NOT NULL UNIQUE AUTO_INCREMENT PRIMARY KEY,
-Name VARCHAR( 255 ) NOT NULL UNIQUE ,
-Email VARCHAR( 255 ) NOT NULL UNIQUE ,
-Pwd VARCHAR( 255 ) NOT NULL UNIQUE 
-)</t>
   </si>
   <si>
     <t>Amount</t>
@@ -172,16 +164,6 @@
     <t>Mid</t>
   </si>
   <si>
-    <t>CREATE TABLE webmaster(
-Id INT NOT NULL UNIQUE AUTO_INCREMENT PRIMARY KEY,
-Mid VARCHAR(255) NOT NULL UNIQUE,
-Name VARCHAR( 255 ) NOT NULL UNIQUE ,
-Email VARCHAR( 255 ) NOT NULL UNIQUE ,
-Pwd VARCHAR( 255 ) NOT NULL UNIQUE, 
-Website_URL VARCHAR(255) NOT NULL UNIQUE
-)</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -198,6 +180,26 @@
 Host VARCHAR(255) NOT NULL, 
 Url VARCHAR(255) NOT NULL,
 Cost numeric(15,2) NOT NULL,
+Date DATETIME NOT NULL
+)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE user(
+Id INT NOT NULL UNIQUE AUTO_INCREMENT PRIMARY KEY,
+Name VARCHAR( 255 ) NOT NULL UNIQUE ,
+Email VARCHAR( 255 ) NOT NULL UNIQUE ,
+Pwd VARCHAR( 255 ) NOT NULL UNIQUE, 
+Date DATETIME NOT NULL
+)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE webmaster(
+Id INT NOT NULL UNIQUE AUTO_INCREMENT PRIMARY KEY,
+Mid VARCHAR(255) NOT NULL UNIQUE,
+Name VARCHAR( 255 ) NOT NULL UNIQUE ,
+Email VARCHAR( 255 ) NOT NULL UNIQUE ,
+Pwd VARCHAR( 255 ) NOT NULL UNIQUE, 
+Website_URL VARCHAR(255) NOT NULL UNIQUE,
 Date DATETIME NOT NULL
 )</t>
   </si>
@@ -300,17 +302,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -617,11 +619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25:O31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,34 +663,34 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -709,15 +711,15 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="I3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -741,13 +743,13 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -771,13 +773,13 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -801,25 +803,33 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -828,72 +838,64 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>255</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,230 +908,225 @@
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>255</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -1138,22 +1135,24 @@
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -1171,19 +1170,19 @@
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
@@ -1201,19 +1200,19 @@
         <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
@@ -1233,17 +1232,17 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>13</v>
@@ -1263,95 +1262,95 @@
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>255</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1">
-        <v>255</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>13</v>
@@ -1369,19 +1368,19 @@
         <v>12</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
@@ -1399,19 +1398,19 @@
         <v>12</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -1431,15 +1430,15 @@
       <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1461,17 +1460,17 @@
       <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
@@ -1491,27 +1490,57 @@
       <c r="G31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1">
+        <v>255</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I25:O31"/>
-    <mergeCell ref="A24:O24"/>
+    <mergeCell ref="I26:O32"/>
+    <mergeCell ref="A25:O25"/>
     <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I3:O6"/>
-    <mergeCell ref="I18:O23"/>
-    <mergeCell ref="I8:O11"/>
-    <mergeCell ref="A12:O12"/>
-    <mergeCell ref="A17:O17"/>
-    <mergeCell ref="I13:O16"/>
+    <mergeCell ref="I19:O24"/>
+    <mergeCell ref="I9:O12"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="I14:O17"/>
     <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A8:O8"/>
+    <mergeCell ref="I3:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
